--- a/data/trans_orig/P16A_n_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R-Edad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>0.2691344866959531</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3466072696466038</v>
+        <v>0.3466072696466037</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.5217276014105272</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1898942801222627</v>
+        <v>0.1887985052840506</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2864917681696044</v>
+        <v>0.2810743471113738</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2181287367124394</v>
+        <v>0.2132597010623101</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2499884298335267</v>
+        <v>0.2466855918308725</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4606526420173178</v>
+        <v>0.4510898881538194</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6188945509172977</v>
+        <v>0.6290781858543729</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4979722159765372</v>
+        <v>0.5035028862886645</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4824589714616814</v>
+        <v>0.4799957534917886</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3296639983170229</v>
+        <v>0.325834015363237</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4666149799972431</v>
+        <v>0.4626806825221663</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3681359096340899</v>
+        <v>0.3684687697234785</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3880311937268712</v>
+        <v>0.3895861261611031</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2764763919180101</v>
+        <v>0.2773926119258452</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.401703510603623</v>
+        <v>0.3969681819368604</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3335784921540609</v>
+        <v>0.3338992085512344</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4661664397494008</v>
+        <v>0.4639528841846543</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5930384586775017</v>
+        <v>0.6046506161829822</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7846286600722087</v>
+        <v>0.7978231072622154</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6504540561727568</v>
+        <v>0.6594004218731397</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7943267499752408</v>
+        <v>0.8074432558104262</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4201839617674213</v>
+        <v>0.4182285522641701</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.571564041764857</v>
+        <v>0.5622721337472592</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4671789708424127</v>
+        <v>0.463948375695994</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5726630758391376</v>
+        <v>0.5760072469817654</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.6837133253701331</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.6890821413262941</v>
+        <v>0.6890821413262939</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.4262269793289906</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.214583984331679</v>
+        <v>0.2138411526844253</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4374268492080729</v>
+        <v>0.431489991672869</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3691972205643039</v>
+        <v>0.3698909565954717</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3946820899999796</v>
+        <v>0.3914149449639756</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.55192927033051</v>
+        <v>0.5649326891932962</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7932553187403854</v>
+        <v>0.7937603539251741</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6112243574738917</v>
+        <v>0.6111652520760151</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5992821840159623</v>
+        <v>0.5952128408346751</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.385320533972243</v>
+        <v>0.3851220205078473</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6252890642389838</v>
+        <v>0.6174425752888941</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5048001768135999</v>
+        <v>0.502346817582385</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5239248837640758</v>
+        <v>0.523511002931675</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2982029888879134</v>
+        <v>0.3013747460155647</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6561310858283905</v>
+        <v>0.6464438667145715</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.490076203967565</v>
+        <v>0.4880000287039049</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5896508915787916</v>
+        <v>0.584945750276733</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7078584803894395</v>
+        <v>0.7101971032992644</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9578802851136006</v>
+        <v>0.9591260467444083</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7642886438978905</v>
+        <v>0.7616683379164783</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7892338325452779</v>
+        <v>0.7832139955542363</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.47342587990494</v>
+        <v>0.4718324401300678</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7506861641084674</v>
+        <v>0.7554794236571415</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.6068285701041364</v>
+        <v>0.6021542200819668</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6649278171066452</v>
+        <v>0.6630865702394243</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.4915424533412789</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6048228567856919</v>
+        <v>0.6048228567856918</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.6941544156807753</v>
@@ -965,7 +965,7 @@
         <v>0.6339937033549987</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.7430248887033492</v>
+        <v>0.743024888703349</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3428735998067802</v>
+        <v>0.3479780857195348</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5009265067555481</v>
+        <v>0.4988765405488736</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4323617721975357</v>
+        <v>0.4321213563540126</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5194083084647296</v>
+        <v>0.5189057802698465</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6215879700464156</v>
+        <v>0.622247550717259</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9467180829510603</v>
+        <v>0.9555135431375692</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.705685880149139</v>
+        <v>0.710420050551131</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7905005731908733</v>
+        <v>0.796005630584444</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5087873107312465</v>
+        <v>0.5024395219547058</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.746984272039808</v>
+        <v>0.7477604466090828</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5864241626831639</v>
+        <v>0.58755046024275</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.6809892334539137</v>
+        <v>0.6806850070085836</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4689083689005175</v>
+        <v>0.4749820223077111</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.663291682002585</v>
+        <v>0.6552024099077979</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5568265886430197</v>
+        <v>0.5510764596642966</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7081937689969662</v>
+        <v>0.7029119029942074</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7808533709810986</v>
+        <v>0.7858802689322723</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.158131275495628</v>
+        <v>1.165836642572599</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8539592767434776</v>
+        <v>0.8539761148976129</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9733560280967062</v>
+        <v>0.9780602067429388</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6101074848789685</v>
+        <v>0.6088992408997158</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8823640416242384</v>
+        <v>0.8797162287239889</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6847976407230617</v>
+        <v>0.6844729063597731</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.801418720359854</v>
+        <v>0.8104416349045208</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5499272796870646</v>
+        <v>0.5517842624402791</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7159422070589151</v>
+        <v>0.7076331111050341</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7246138772272672</v>
+        <v>0.7254961111855942</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.015741182795558</v>
+        <v>1.019813725857377</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.879779136358608</v>
+        <v>0.8828848639270677</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1.23810649289386</v>
+        <v>1.238254263417039</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.035378906828596</v>
+        <v>1.034353923498041</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>1.276622053193373</v>
+        <v>1.264140566067473</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7442482905082483</v>
+        <v>0.7419229787277589</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.9985996087075196</v>
+        <v>1.000016766708864</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.9016153669195864</v>
+        <v>0.9035329171836801</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>1.174806240050914</v>
+        <v>1.178159861394397</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7449040359010384</v>
+        <v>0.744777370853374</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9233551968482846</v>
+        <v>0.9220002747720086</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8884790895712918</v>
+        <v>0.8859261810367333</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.29093056594634</v>
+        <v>1.290809718149198</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.097219392738173</v>
+        <v>1.09481382852477</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>1.480663117729912</v>
+        <v>1.49321635595806</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>1.263098267972433</v>
+        <v>1.247941311547013</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>1.478653222213244</v>
+        <v>1.474017699521318</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8909275274462626</v>
+        <v>0.8977010824560699</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1.166284219212238</v>
+        <v>1.174000606254963</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>1.040839224267539</v>
+        <v>1.035535132362614</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>1.348160880899125</v>
+        <v>1.34666968711905</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>1.938005594557418</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>2.141331605990472</v>
+        <v>2.141331605990473</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>1.47305533211977</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.196569109616719</v>
+        <v>1.192890824339934</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.348572642424236</v>
+        <v>1.350606065930229</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.178466814482336</v>
+        <v>1.180772083891421</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.496464981195657</v>
+        <v>1.495642910821001</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.476704692164825</v>
+        <v>1.483749121977075</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.979777715107632</v>
+        <v>2.007592504381499</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.783897001356658</v>
+        <v>1.782692045252593</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.020909627613248</v>
+        <v>2.009703492205212</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.372730065568241</v>
+        <v>1.38586279941373</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1.713534569150645</v>
+        <v>1.72219236159254</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1.522748796925823</v>
+        <v>1.517277920450943</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>1.793796946810489</v>
+        <v>1.776764750939897</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.433009675328043</v>
+        <v>1.462984787548888</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.628387319462164</v>
+        <v>1.616821345529935</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.456256275573938</v>
+        <v>1.46914165989044</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.759255432029894</v>
+        <v>1.741875483947326</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.780686290025054</v>
+        <v>1.801038968766018</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.354718505864973</v>
+        <v>2.377545030331979</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.097917388687987</v>
+        <v>2.101139575241628</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.291218271017549</v>
+        <v>2.283907229898515</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.570876441812346</v>
+        <v>1.590692229572195</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1.955030672995403</v>
+        <v>1.960822467914431</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1.737587932508358</v>
+        <v>1.74100762640316</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>1.984351232140757</v>
+        <v>1.978317779098551</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>2.4877186420215</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>2.849739725770529</v>
+        <v>2.849739725770528</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>1.960053265549794</v>
@@ -1373,7 +1373,7 @@
         <v>2.223250215851163</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>2.485508030097702</v>
+        <v>2.485508030097703</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.468556576830954</v>
+        <v>1.458752988161391</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.14027352690898</v>
+        <v>2.140188686599104</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.755342443229357</v>
+        <v>1.752404229914933</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.941914341961166</v>
+        <v>1.937384557313309</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>2.072604027984298</v>
+        <v>2.084265472454915</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>2.693493291581269</v>
+        <v>2.67811747078464</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>2.308892506288397</v>
+        <v>2.276943834105694</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>2.695418641761438</v>
+        <v>2.675304612794041</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>1.83138210254655</v>
+        <v>1.838254639725579</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2.475971107679367</v>
+        <v>2.481096846102874</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2.102234172160389</v>
+        <v>2.099375552124759</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>2.372788964119739</v>
+        <v>2.366961362940885</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.803958003857525</v>
+        <v>1.80228709311186</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.566160222628648</v>
+        <v>2.572363301369976</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.108530422838798</v>
+        <v>2.102475439059038</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2.263159043435904</v>
+        <v>2.256212619105013</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>2.43083368258021</v>
+        <v>2.443177750417203</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>3.153710718923396</v>
+        <v>3.114837839555002</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>2.680537622943708</v>
+        <v>2.685858017836031</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>3.016341355634224</v>
+        <v>3.006460438345275</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>2.091096597044611</v>
+        <v>2.093439313554169</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2.779861220884577</v>
+        <v>2.781716312568943</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2.362146922481397</v>
+        <v>2.371603783614999</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>2.608042877603534</v>
+        <v>2.607341414469997</v>
       </c>
     </row>
     <row r="22">
@@ -1509,7 +1509,7 @@
         <v>2.768038495315422</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>3.546644566609831</v>
+        <v>3.54664456660983</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.055327837946848</v>
+        <v>2.049368676462951</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.714212983289589</v>
+        <v>2.723859142233584</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.306503631658192</v>
+        <v>2.333788010539082</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.781719311801838</v>
+        <v>2.764925641917501</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.256579424940057</v>
+        <v>2.237655905860231</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.335409266827836</v>
+        <v>3.343084132620807</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.750990904233893</v>
+        <v>2.745275869469416</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>3.732577815698937</v>
+        <v>3.727902317907963</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.218621682015362</v>
+        <v>2.231018077400864</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3.149663610754404</v>
+        <v>3.144660085932319</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2.632564458442263</v>
+        <v>2.629726205122765</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>3.402270197550966</v>
+        <v>3.412384229719265</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.505789831214588</v>
+        <v>2.501711370844279</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.204969354699153</v>
+        <v>3.222708522226481</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.673405973267629</v>
+        <v>2.676909308166324</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.193898221294047</v>
+        <v>3.196516585465943</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.612984472673785</v>
+        <v>2.581917422663233</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.76344168571218</v>
+        <v>3.771413479275143</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.160271367451556</v>
+        <v>3.173094871716834</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.101434737059662</v>
+        <v>4.094381106658457</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.50062462091074</v>
+        <v>2.511365888452789</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3.458963283464955</v>
+        <v>3.452711507800385</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2.918409127968795</v>
+        <v>2.906328410763112</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>3.691598665106489</v>
+        <v>3.697012092241002</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.6802186333896015</v>
+        <v>0.6790810843551452</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.9613855059404943</v>
+        <v>0.9632605335231373</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8747643028366959</v>
+        <v>0.8739576611198837</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1.168440677085846</v>
+        <v>1.164450755438751</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>1.088526695096107</v>
+        <v>1.094416956265885</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>1.567716903606793</v>
+        <v>1.564093725970983</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>1.339288879610574</v>
+        <v>1.339297970881982</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>1.678781593325099</v>
+        <v>1.680303485045988</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.9005833158051764</v>
+        <v>0.9001271337604488</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1.285458762476678</v>
+        <v>1.285090277233669</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1.121790671640509</v>
+        <v>1.127186657079114</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>1.449373407671059</v>
+        <v>1.442425329104705</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.7594834561388329</v>
+        <v>0.7581598268014363</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.073778055211194</v>
+        <v>1.072333760844034</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9645317900660269</v>
+        <v>0.9596800545061966</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.281092943595263</v>
+        <v>1.282133335534704</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>1.185510617866816</v>
+        <v>1.19234308509979</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>1.689042535172228</v>
+        <v>1.695177966356193</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>1.45506060446568</v>
+        <v>1.453565773024505</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>1.795795122018358</v>
+        <v>1.799327488979562</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.9659232294113056</v>
+        <v>0.9640773568191172</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1.366833088633991</v>
+        <v>1.364548777390188</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1.196624232916998</v>
+        <v>1.199876313312217</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>1.527312356851608</v>
+        <v>1.527763254733489</v>
       </c>
     </row>
     <row r="28">
